--- a/biology/Médecine/Ligne_anatomique/Ligne_anatomique.xlsx
+++ b/biology/Médecine/Ligne_anatomique/Ligne_anatomique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ligne anatomique est une ligne conventionnelle tracée, souvent par imagination et pour des usages liés à la santé, sur la base de points et emplacements anatomiques. Elle peut ainsi guider certains gestes de nature thérapeutique à la manière d'un repérage. Une ligne anatomique suppose un compromis entre l'anatomie caractéristique d'une espèce donnée et la réalité physique d'un individu particulier. 
 </t>
@@ -511,7 +523,9 @@
           <t>Terminologia Anatomica</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lignes de référence répertoriées dans Terminologia Anatomica sont :
 </t>
@@ -542,10 +556,12 @@
           <t>Autres lignes anatomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La ligne de Malgaigne joint l'épine iliaque antéro-supérieure à l'épine du pubis. Elle correspond à la projection cutanée du ligament inguinal.
-La ligne de Tuffier lie le sommet des deux crêtes iliaques et peut servir comme repère lors de la réalisation d'une rachianesthésie[1].
+La ligne de Tuffier lie le sommet des deux crêtes iliaques et peut servir comme repère lors de la réalisation d'une rachianesthésie.
 </t>
         </is>
       </c>
